--- a/Code/Results/Cases/Case_3_233/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_233/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9953114355970102</v>
+        <v>1.049992953503481</v>
       </c>
       <c r="D2">
-        <v>1.018275987872756</v>
+        <v>1.054902367190466</v>
       </c>
       <c r="E2">
-        <v>0.9999343097683236</v>
+        <v>1.046887125505166</v>
       </c>
       <c r="F2">
-        <v>1.018834141677514</v>
+        <v>1.063816585448425</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045791424979283</v>
+        <v>1.041689313359631</v>
       </c>
       <c r="J2">
-        <v>1.017633290911751</v>
+        <v>1.055028462698303</v>
       </c>
       <c r="K2">
-        <v>1.029486448071197</v>
+        <v>1.057644299060754</v>
       </c>
       <c r="L2">
-        <v>1.011394559835905</v>
+        <v>1.049651304281252</v>
       </c>
       <c r="M2">
-        <v>1.03003717757162</v>
+        <v>1.066534201493332</v>
       </c>
       <c r="N2">
-        <v>1.019078446909016</v>
+        <v>1.05652672412879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005243238274386</v>
+        <v>1.051810594787204</v>
       </c>
       <c r="D3">
-        <v>1.026262596677051</v>
+        <v>1.056365186997686</v>
       </c>
       <c r="E3">
-        <v>1.008548414497787</v>
+        <v>1.048482215375519</v>
       </c>
       <c r="F3">
-        <v>1.02785765007531</v>
+        <v>1.065519848265398</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049351857875477</v>
+        <v>1.042202233673633</v>
       </c>
       <c r="J3">
-        <v>1.025591980750534</v>
+        <v>1.056491365792578</v>
       </c>
       <c r="K3">
-        <v>1.036570118247127</v>
+        <v>1.058918796350207</v>
       </c>
       <c r="L3">
-        <v>1.019073072836216</v>
+        <v>1.051056094976843</v>
       </c>
       <c r="M3">
-        <v>1.038146075421269</v>
+        <v>1.068050322900012</v>
       </c>
       <c r="N3">
-        <v>1.027048439000244</v>
+        <v>1.057991704713257</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011416362499236</v>
+        <v>1.052982976709455</v>
       </c>
       <c r="D4">
-        <v>1.031230392412019</v>
+        <v>1.057308392585577</v>
       </c>
       <c r="E4">
-        <v>1.013903378157383</v>
+        <v>1.049510556155923</v>
       </c>
       <c r="F4">
-        <v>1.033476540950935</v>
+        <v>1.066618930886289</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051548245216741</v>
+        <v>1.042530968330674</v>
       </c>
       <c r="J4">
-        <v>1.030532477227573</v>
+        <v>1.057433958837811</v>
       </c>
       <c r="K4">
-        <v>1.040965957296791</v>
+        <v>1.059739638572331</v>
       </c>
       <c r="L4">
-        <v>1.023836848430419</v>
+        <v>1.051960827426759</v>
       </c>
       <c r="M4">
-        <v>1.043187048731964</v>
+        <v>1.06902785220985</v>
       </c>
       <c r="N4">
-        <v>1.031995951548963</v>
+        <v>1.058935636348731</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013955381100674</v>
+        <v>1.053474966510024</v>
       </c>
       <c r="D5">
-        <v>1.033274365727666</v>
+        <v>1.057704131509535</v>
       </c>
       <c r="E5">
-        <v>1.016105976579585</v>
+        <v>1.049941980200421</v>
       </c>
       <c r="F5">
-        <v>1.035789891219741</v>
+        <v>1.067080272880223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052447546496681</v>
+        <v>1.042668418255341</v>
       </c>
       <c r="J5">
-        <v>1.03256292802411</v>
+        <v>1.057829282165608</v>
       </c>
       <c r="K5">
-        <v>1.042772162318309</v>
+        <v>1.06008381392671</v>
       </c>
       <c r="L5">
-        <v>1.025794000211346</v>
+        <v>1.052340172422737</v>
       </c>
       <c r="M5">
-        <v>1.045260465190042</v>
+        <v>1.069437981902298</v>
       </c>
       <c r="N5">
-        <v>1.034029285818528</v>
+        <v>1.059331521080998</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014378521325667</v>
+        <v>1.053557522734263</v>
       </c>
       <c r="D6">
-        <v>1.033615040930583</v>
+        <v>1.057770532207344</v>
       </c>
       <c r="E6">
-        <v>1.016473052942972</v>
+        <v>1.050014366462731</v>
       </c>
       <c r="F6">
-        <v>1.036175552296546</v>
+        <v>1.067157692920688</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052597177078768</v>
+        <v>1.042691452892554</v>
       </c>
       <c r="J6">
-        <v>1.032901217146331</v>
+        <v>1.057895603855211</v>
       </c>
       <c r="K6">
-        <v>1.043073065343488</v>
+        <v>1.06014154969502</v>
       </c>
       <c r="L6">
-        <v>1.026120037739876</v>
+        <v>1.052403807660624</v>
       </c>
       <c r="M6">
-        <v>1.045606009372217</v>
+        <v>1.069506796614362</v>
       </c>
       <c r="N6">
-        <v>1.034368055350105</v>
+        <v>1.059397936955007</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011450504108393</v>
+        <v>1.052989554131429</v>
       </c>
       <c r="D7">
-        <v>1.031257874675061</v>
+        <v>1.057313683532571</v>
       </c>
       <c r="E7">
-        <v>1.013932995782221</v>
+        <v>1.049516324341157</v>
       </c>
       <c r="F7">
-        <v>1.033507639204253</v>
+        <v>1.066625098137787</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051560354206501</v>
+        <v>1.042532807882335</v>
       </c>
       <c r="J7">
-        <v>1.030559786639795</v>
+        <v>1.057439244850797</v>
       </c>
       <c r="K7">
-        <v>1.040990252275398</v>
+        <v>1.059744241004969</v>
       </c>
       <c r="L7">
-        <v>1.023863174633218</v>
+        <v>1.051965900179055</v>
       </c>
       <c r="M7">
-        <v>1.043214929477021</v>
+        <v>1.069033335598849</v>
       </c>
       <c r="N7">
-        <v>1.032023299743684</v>
+        <v>1.058940929868462</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.998723294727855</v>
+        <v>1.050608022597397</v>
       </c>
       <c r="D8">
-        <v>1.021018710321756</v>
+        <v>1.055397433395021</v>
       </c>
       <c r="E8">
-        <v>1.002893244506382</v>
+        <v>1.047426988227253</v>
       </c>
       <c r="F8">
-        <v>1.021931660395043</v>
+        <v>1.06439285070101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047018004130834</v>
+        <v>1.041863315023345</v>
       </c>
       <c r="J8">
-        <v>1.02036859642076</v>
+        <v>1.055523695923184</v>
       </c>
       <c r="K8">
-        <v>1.031921302028436</v>
+        <v>1.058075825068036</v>
       </c>
       <c r="L8">
-        <v>1.014034167067749</v>
+        <v>1.050126951580683</v>
       </c>
       <c r="M8">
-        <v>1.032822527402995</v>
+        <v>1.067047316079682</v>
       </c>
       <c r="N8">
-        <v>1.021817636865592</v>
+        <v>1.057022660641654</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9741193599686438</v>
+        <v>1.046381852631049</v>
       </c>
       <c r="D9">
-        <v>1.001265459984768</v>
+        <v>1.051994564360256</v>
       </c>
       <c r="E9">
-        <v>0.9815650224442439</v>
+        <v>1.043715538745481</v>
       </c>
       <c r="F9">
-        <v>0.9996494137286804</v>
+        <v>1.060435322601125</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038103882725702</v>
+        <v>1.040659109259485</v>
       </c>
       <c r="J9">
-        <v>1.000620339047882</v>
+        <v>1.052116892685775</v>
       </c>
       <c r="K9">
-        <v>1.014338039294727</v>
+        <v>1.055105833660423</v>
       </c>
       <c r="L9">
-        <v>0.9949644473074879</v>
+        <v>1.046853151173782</v>
       </c>
       <c r="M9">
-        <v>1.012748181512541</v>
+        <v>1.063520196789934</v>
       </c>
       <c r="N9">
-        <v>1.002041334702087</v>
+        <v>1.053611019352884</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9558550936549646</v>
+        <v>1.043543291336352</v>
       </c>
       <c r="D10">
-        <v>0.9866472201451133</v>
+        <v>1.049707478814887</v>
       </c>
       <c r="E10">
-        <v>0.9657529210187469</v>
+        <v>1.041220163303661</v>
       </c>
       <c r="F10">
-        <v>0.9831927328407645</v>
+        <v>1.057779802328461</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031403254639043</v>
+        <v>1.039839456996485</v>
       </c>
       <c r="J10">
-        <v>0.9859366818921182</v>
+        <v>1.049823616680121</v>
       </c>
       <c r="K10">
-        <v>1.001261822239834</v>
+        <v>1.053104806604832</v>
       </c>
       <c r="L10">
-        <v>0.9807693291565911</v>
+        <v>1.044647213946306</v>
       </c>
       <c r="M10">
-        <v>0.9978722265074926</v>
+        <v>1.061149347409864</v>
       </c>
       <c r="N10">
-        <v>0.9873368250689232</v>
+        <v>1.051314486632259</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9473895969817604</v>
+        <v>1.042308884063246</v>
       </c>
       <c r="D11">
-        <v>0.9798872566304062</v>
+        <v>1.048712554836187</v>
       </c>
       <c r="E11">
-        <v>0.9584321231982651</v>
+        <v>1.040134402077852</v>
       </c>
       <c r="F11">
-        <v>0.9755901817788544</v>
+        <v>1.05662563262117</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028279924296088</v>
+        <v>1.039480453683239</v>
       </c>
       <c r="J11">
-        <v>0.9791275153775137</v>
+        <v>1.048825145592346</v>
       </c>
       <c r="K11">
-        <v>0.9951987056254602</v>
+        <v>1.052233161888467</v>
       </c>
       <c r="L11">
-        <v>0.9741829615405114</v>
+        <v>1.043686246082808</v>
       </c>
       <c r="M11">
-        <v>0.9909875954426453</v>
+        <v>1.060117920712647</v>
       </c>
       <c r="N11">
-        <v>0.9805179887568457</v>
+        <v>1.050314597601013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9441489727264887</v>
+        <v>1.041849551787503</v>
       </c>
       <c r="D12">
-        <v>0.9773023665693522</v>
+        <v>1.048342287065844</v>
       </c>
       <c r="E12">
-        <v>0.9556312598982902</v>
+        <v>1.039730293117656</v>
       </c>
       <c r="F12">
-        <v>0.9726842071616104</v>
+        <v>1.056196255002694</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027081898108167</v>
+        <v>1.039346481885494</v>
       </c>
       <c r="J12">
-        <v>0.9765207045075819</v>
+        <v>1.048453428318462</v>
       </c>
       <c r="K12">
-        <v>0.9928777310414754</v>
+        <v>1.051908598530738</v>
       </c>
       <c r="L12">
-        <v>0.9716608934661101</v>
+        <v>1.043328411849778</v>
       </c>
       <c r="M12">
-        <v>0.9883541375495281</v>
+        <v>1.059734058306078</v>
       </c>
       <c r="N12">
-        <v>0.9779074759164726</v>
+        <v>1.049942352445963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9448486800436671</v>
+        <v>1.04194811753659</v>
       </c>
       <c r="D13">
-        <v>0.9778603519217991</v>
+        <v>1.048421743113088</v>
       </c>
       <c r="E13">
-        <v>0.9562359382975627</v>
+        <v>1.039817012798742</v>
       </c>
       <c r="F13">
-        <v>0.9733114539047676</v>
+        <v>1.056288388490169</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027340676827111</v>
+        <v>1.03937524756227</v>
       </c>
       <c r="J13">
-        <v>0.977083566400799</v>
+        <v>1.048533201288447</v>
       </c>
       <c r="K13">
-        <v>0.9933788631329553</v>
+        <v>1.051978254746195</v>
       </c>
       <c r="L13">
-        <v>0.9722054824209094</v>
+        <v>1.043405209001855</v>
       </c>
       <c r="M13">
-        <v>0.988922648666689</v>
+        <v>1.059816432089433</v>
       </c>
       <c r="N13">
-        <v>0.9784711371381399</v>
+        <v>1.050022238702715</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9471237697531897</v>
+        <v>1.042270932347084</v>
       </c>
       <c r="D14">
-        <v>0.9796751582385471</v>
+        <v>1.048681962946151</v>
       </c>
       <c r="E14">
-        <v>0.9582023355345952</v>
+        <v>1.040101014926342</v>
       </c>
       <c r="F14">
-        <v>0.9753517152304387</v>
+        <v>1.056590153867526</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028181697665662</v>
+        <v>1.03946939226605</v>
       </c>
       <c r="J14">
-        <v>0.9789136827379843</v>
+        <v>1.048794436587825</v>
       </c>
       <c r="K14">
-        <v>0.9950083144697893</v>
+        <v>1.052206349708042</v>
       </c>
       <c r="L14">
-        <v>0.9739760913187768</v>
+        <v>1.043656685620169</v>
       </c>
       <c r="M14">
-        <v>0.9907715304914301</v>
+        <v>1.060086205823836</v>
       </c>
       <c r="N14">
-        <v>0.9803038524504409</v>
+        <v>1.050283844986183</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9485123648941189</v>
+        <v>1.042469720045859</v>
       </c>
       <c r="D15">
-        <v>0.9807832098795125</v>
+        <v>1.048842198536193</v>
       </c>
       <c r="E15">
-        <v>0.9594027372555848</v>
+        <v>1.040275890203774</v>
       </c>
       <c r="F15">
-        <v>0.9765975648512525</v>
+        <v>1.056775992416121</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028694706008113</v>
+        <v>1.03952731527316</v>
       </c>
       <c r="J15">
-        <v>0.9800306671349337</v>
+        <v>1.048955280302872</v>
       </c>
       <c r="K15">
-        <v>0.9960028587019821</v>
+        <v>1.052346780608356</v>
       </c>
       <c r="L15">
-        <v>0.9750566842606043</v>
+        <v>1.043811510418774</v>
       </c>
       <c r="M15">
-        <v>0.9919002676045514</v>
+        <v>1.060252323100974</v>
       </c>
       <c r="N15">
-        <v>0.9814224230933539</v>
+        <v>1.050444917117755</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9564041809687435</v>
+        <v>1.043625101400044</v>
       </c>
       <c r="D16">
-        <v>0.9870860429815203</v>
+        <v>1.04977341022149</v>
       </c>
       <c r="E16">
-        <v>0.9662279546238742</v>
+        <v>1.041292109398716</v>
       </c>
       <c r="F16">
-        <v>0.9836864048961498</v>
+        <v>1.057856308241187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03160549814156</v>
+        <v>1.03986319606683</v>
       </c>
       <c r="J16">
-        <v>0.9863782896512721</v>
+        <v>1.049889765089245</v>
       </c>
       <c r="K16">
-        <v>1.001655067921782</v>
+        <v>1.053162544115784</v>
       </c>
       <c r="L16">
-        <v>0.9811964112719056</v>
+        <v>1.044710866752667</v>
       </c>
       <c r="M16">
-        <v>0.9983190238058373</v>
+        <v>1.061217696401176</v>
       </c>
       <c r="N16">
-        <v>0.9877790599617481</v>
+        <v>1.051380728979711</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9611973890540528</v>
+        <v>1.044348408445681</v>
       </c>
       <c r="D17">
-        <v>0.9909184940430498</v>
+        <v>1.050356290666393</v>
       </c>
       <c r="E17">
-        <v>0.9703756550932472</v>
+        <v>1.041928137594168</v>
       </c>
       <c r="F17">
-        <v>0.9879987211547593</v>
+        <v>1.058532793512907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033369030083535</v>
+        <v>1.040072785187775</v>
       </c>
       <c r="J17">
-        <v>0.9902329240137727</v>
+        <v>1.050474465419278</v>
       </c>
       <c r="K17">
-        <v>1.005087650946726</v>
+        <v>1.053672850821651</v>
       </c>
       <c r="L17">
-        <v>0.9849238398556891</v>
+        <v>1.045273447588463</v>
       </c>
       <c r="M17">
-        <v>1.00222050011376</v>
+        <v>1.061821942607935</v>
       </c>
       <c r="N17">
-        <v>0.9916391683471762</v>
+        <v>1.051966259651279</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9639404180314759</v>
+        <v>1.044769792255122</v>
       </c>
       <c r="D18">
-        <v>0.9931131141896586</v>
+        <v>1.050695832246376</v>
       </c>
       <c r="E18">
-        <v>0.9727500032579358</v>
+        <v>1.042298617204287</v>
       </c>
       <c r="F18">
-        <v>0.990468835824449</v>
+        <v>1.058926961240092</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034376608789594</v>
+        <v>1.040194641025808</v>
       </c>
       <c r="J18">
-        <v>0.9924385089115513</v>
+        <v>1.050814985012328</v>
       </c>
       <c r="K18">
-        <v>1.007051792655248</v>
+        <v>1.053970004760855</v>
       </c>
       <c r="L18">
-        <v>0.9870562910612322</v>
+        <v>1.04560103485694</v>
       </c>
       <c r="M18">
-        <v>1.004454143022408</v>
+        <v>1.062173924116486</v>
       </c>
       <c r="N18">
-        <v>0.9938478854284938</v>
+        <v>1.052307262821209</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9648671066032728</v>
+        <v>1.044913387622789</v>
       </c>
       <c r="D19">
-        <v>0.9938547570856811</v>
+        <v>1.050811532582589</v>
       </c>
       <c r="E19">
-        <v>0.9735522531470067</v>
+        <v>1.042424856159951</v>
       </c>
       <c r="F19">
-        <v>0.9913036987018231</v>
+        <v>1.059061292505458</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034716717857774</v>
+        <v>1.040236124129081</v>
       </c>
       <c r="J19">
-        <v>0.9931835691524648</v>
+        <v>1.050931004716321</v>
       </c>
       <c r="K19">
-        <v>1.007715297208785</v>
+        <v>1.054071242374287</v>
       </c>
       <c r="L19">
-        <v>0.9877765870803504</v>
+        <v>1.045712639816414</v>
       </c>
       <c r="M19">
-        <v>1.005208889577151</v>
+        <v>1.062293862383979</v>
       </c>
       <c r="N19">
-        <v>0.9945940037404088</v>
+        <v>1.052423447286489</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9606886630023482</v>
+        <v>1.044270857257484</v>
       </c>
       <c r="D20">
-        <v>0.9905115878244071</v>
+        <v>1.050293799029789</v>
       </c>
       <c r="E20">
-        <v>0.9699353619529659</v>
+        <v>1.041859950157993</v>
       </c>
       <c r="F20">
-        <v>0.9875407926730535</v>
+        <v>1.058460256081036</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033182027886051</v>
+        <v>1.0400503390625</v>
       </c>
       <c r="J20">
-        <v>0.9898238452488325</v>
+        <v>1.050411787175139</v>
       </c>
       <c r="K20">
-        <v>1.004723356942286</v>
+        <v>1.053618151508013</v>
       </c>
       <c r="L20">
-        <v>0.9845282971736989</v>
+        <v>1.045213145700878</v>
       </c>
       <c r="M20">
-        <v>1.001806318178678</v>
+        <v>1.061757160947045</v>
       </c>
       <c r="N20">
-        <v>0.9912295086434678</v>
+        <v>1.051903492396843</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9464565812460526</v>
+        <v>1.042175894214613</v>
       </c>
       <c r="D21">
-        <v>0.9791428690362984</v>
+        <v>1.048605354396436</v>
       </c>
       <c r="E21">
-        <v>0.9576256276110786</v>
+        <v>1.040017405874354</v>
       </c>
       <c r="F21">
-        <v>0.9747532692447646</v>
+        <v>1.056501310074427</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027935125163164</v>
+        <v>1.039441686229717</v>
       </c>
       <c r="J21">
-        <v>0.9783769904310881</v>
+        <v>1.048717532665202</v>
       </c>
       <c r="K21">
-        <v>0.9945304612391938</v>
+        <v>1.052139203525276</v>
       </c>
       <c r="L21">
-        <v>0.9734568649561859</v>
+        <v>1.043582656692264</v>
       </c>
       <c r="M21">
-        <v>0.9902292720263139</v>
+        <v>1.060006784887295</v>
       </c>
       <c r="N21">
-        <v>0.9797663979789096</v>
+        <v>1.050206831851169</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9369435530854702</v>
+        <v>1.040853960638404</v>
       </c>
       <c r="D22">
-        <v>0.9715608907611697</v>
+        <v>1.047539653056212</v>
       </c>
       <c r="E22">
-        <v>0.9494069923779024</v>
+        <v>1.038854234739366</v>
       </c>
       <c r="F22">
-        <v>0.9662315602181709</v>
+        <v>1.055265770449669</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024413977696647</v>
+        <v>1.039055399524649</v>
       </c>
       <c r="J22">
-        <v>0.9707244468814186</v>
+        <v>1.04764741412573</v>
       </c>
       <c r="K22">
-        <v>0.9877175976460171</v>
+        <v>1.051204718245401</v>
       </c>
       <c r="L22">
-        <v>0.9660520520964705</v>
+        <v>1.042552356244694</v>
       </c>
       <c r="M22">
-        <v>0.9825030297003058</v>
+        <v>1.05890193659296</v>
       </c>
       <c r="N22">
-        <v>0.9721029869396403</v>
+        <v>1.049135193620626</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9420450637209452</v>
+        <v>1.041555200529603</v>
       </c>
       <c r="D23">
-        <v>0.9756250556005202</v>
+        <v>1.048104996901821</v>
       </c>
       <c r="E23">
-        <v>0.9538133483227087</v>
+        <v>1.039471305298982</v>
       </c>
       <c r="F23">
-        <v>0.9707988551158486</v>
+        <v>1.055921127126515</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026303460112413</v>
+        <v>1.039260521503619</v>
       </c>
       <c r="J23">
-        <v>0.9748282563366711</v>
+        <v>1.048215172648875</v>
       </c>
       <c r="K23">
-        <v>0.9913709388949095</v>
+        <v>1.051700549284131</v>
       </c>
       <c r="L23">
-        <v>0.970023309470066</v>
+        <v>1.043099032394724</v>
       </c>
       <c r="M23">
-        <v>0.9866450481878428</v>
+        <v>1.059488053046128</v>
       </c>
       <c r="N23">
-        <v>0.9762126242750333</v>
+        <v>1.049703758425997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9609186965596332</v>
+        <v>1.044305900873333</v>
       </c>
       <c r="D24">
-        <v>0.9906955765793259</v>
+        <v>1.050322037678088</v>
       </c>
       <c r="E24">
-        <v>0.9701344495724203</v>
+        <v>1.041890762684857</v>
       </c>
       <c r="F24">
-        <v>0.9877478497159852</v>
+        <v>1.058493033905123</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033266590876315</v>
+        <v>1.040060482717456</v>
       </c>
       <c r="J24">
-        <v>0.9900088217479976</v>
+        <v>1.050440110401241</v>
       </c>
       <c r="K24">
-        <v>1.004888082600479</v>
+        <v>1.053642869315885</v>
       </c>
       <c r="L24">
-        <v>0.9847071540352584</v>
+        <v>1.045240395247649</v>
       </c>
       <c r="M24">
-        <v>1.001993598322191</v>
+        <v>1.061786434427797</v>
       </c>
       <c r="N24">
-        <v>0.9914147478304789</v>
+        <v>1.051931855845175</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9807748124081411</v>
+        <v>1.047478050959774</v>
       </c>
       <c r="D25">
-        <v>1.006602561830944</v>
+        <v>1.052877482976442</v>
       </c>
       <c r="E25">
-        <v>0.9873318379552789</v>
+        <v>1.044678673753801</v>
       </c>
       <c r="F25">
-        <v>1.005664185248223</v>
+        <v>1.061461389176699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0405297502735</v>
+        <v>1.040973365770205</v>
       </c>
       <c r="J25">
-        <v>1.005966966759366</v>
+        <v>1.053001450434197</v>
       </c>
       <c r="K25">
-        <v>1.019099238941519</v>
+        <v>1.055877292345751</v>
       </c>
       <c r="L25">
-        <v>1.000130046535813</v>
+        <v>1.047703558850671</v>
       </c>
       <c r="M25">
-        <v>1.018175203804155</v>
+        <v>1.064435397273559</v>
       </c>
       <c r="N25">
-        <v>1.007395555238189</v>
+        <v>1.054496833274768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_233/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_233/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049992953503481</v>
+        <v>0.9953114355970079</v>
       </c>
       <c r="D2">
-        <v>1.054902367190466</v>
+        <v>1.018275987872754</v>
       </c>
       <c r="E2">
-        <v>1.046887125505166</v>
+        <v>0.9999343097683215</v>
       </c>
       <c r="F2">
-        <v>1.063816585448425</v>
+        <v>1.018834141677512</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041689313359631</v>
+        <v>1.045791424979282</v>
       </c>
       <c r="J2">
-        <v>1.055028462698303</v>
+        <v>1.017633290911748</v>
       </c>
       <c r="K2">
-        <v>1.057644299060754</v>
+        <v>1.029486448071194</v>
       </c>
       <c r="L2">
-        <v>1.049651304281252</v>
+        <v>1.011394559835903</v>
       </c>
       <c r="M2">
-        <v>1.066534201493332</v>
+        <v>1.030037177571618</v>
       </c>
       <c r="N2">
-        <v>1.05652672412879</v>
+        <v>1.019078446909013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051810594787204</v>
+        <v>1.005243238274384</v>
       </c>
       <c r="D3">
-        <v>1.056365186997686</v>
+        <v>1.026262596677048</v>
       </c>
       <c r="E3">
-        <v>1.048482215375519</v>
+        <v>1.008548414497784</v>
       </c>
       <c r="F3">
-        <v>1.065519848265398</v>
+        <v>1.027857650075307</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042202233673633</v>
+        <v>1.049351857875476</v>
       </c>
       <c r="J3">
-        <v>1.056491365792578</v>
+        <v>1.025591980750531</v>
       </c>
       <c r="K3">
-        <v>1.058918796350207</v>
+        <v>1.036570118247125</v>
       </c>
       <c r="L3">
-        <v>1.051056094976843</v>
+        <v>1.019073072836213</v>
       </c>
       <c r="M3">
-        <v>1.068050322900012</v>
+        <v>1.038146075421266</v>
       </c>
       <c r="N3">
-        <v>1.057991704713257</v>
+        <v>1.027048439000241</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052982976709455</v>
+        <v>1.011416362499235</v>
       </c>
       <c r="D4">
-        <v>1.057308392585577</v>
+        <v>1.031230392412018</v>
       </c>
       <c r="E4">
-        <v>1.049510556155923</v>
+        <v>1.013903378157382</v>
       </c>
       <c r="F4">
-        <v>1.066618930886289</v>
+        <v>1.033476540950934</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042530968330674</v>
+        <v>1.05154824521674</v>
       </c>
       <c r="J4">
-        <v>1.057433958837811</v>
+        <v>1.030532477227571</v>
       </c>
       <c r="K4">
-        <v>1.059739638572331</v>
+        <v>1.04096595729679</v>
       </c>
       <c r="L4">
-        <v>1.051960827426759</v>
+        <v>1.023836848430418</v>
       </c>
       <c r="M4">
-        <v>1.06902785220985</v>
+        <v>1.043187048731963</v>
       </c>
       <c r="N4">
-        <v>1.058935636348731</v>
+        <v>1.031995951548962</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053474966510024</v>
+        <v>1.013955381100671</v>
       </c>
       <c r="D5">
-        <v>1.057704131509535</v>
+        <v>1.033274365727664</v>
       </c>
       <c r="E5">
-        <v>1.049941980200421</v>
+        <v>1.016105976579582</v>
       </c>
       <c r="F5">
-        <v>1.067080272880223</v>
+        <v>1.035789891219738</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042668418255341</v>
+        <v>1.05244754649668</v>
       </c>
       <c r="J5">
-        <v>1.057829282165608</v>
+        <v>1.032562928024107</v>
       </c>
       <c r="K5">
-        <v>1.06008381392671</v>
+        <v>1.042772162318307</v>
       </c>
       <c r="L5">
-        <v>1.052340172422737</v>
+        <v>1.025794000211344</v>
       </c>
       <c r="M5">
-        <v>1.069437981902298</v>
+        <v>1.045260465190039</v>
       </c>
       <c r="N5">
-        <v>1.059331521080998</v>
+        <v>1.034029285818525</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053557522734263</v>
+        <v>1.014378521325666</v>
       </c>
       <c r="D6">
-        <v>1.057770532207344</v>
+        <v>1.033615040930582</v>
       </c>
       <c r="E6">
-        <v>1.050014366462731</v>
+        <v>1.016473052942971</v>
       </c>
       <c r="F6">
-        <v>1.067157692920688</v>
+        <v>1.036175552296544</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042691452892554</v>
+        <v>1.052597177078767</v>
       </c>
       <c r="J6">
-        <v>1.057895603855211</v>
+        <v>1.03290121714633</v>
       </c>
       <c r="K6">
-        <v>1.06014154969502</v>
+        <v>1.043073065343487</v>
       </c>
       <c r="L6">
-        <v>1.052403807660624</v>
+        <v>1.026120037739875</v>
       </c>
       <c r="M6">
-        <v>1.069506796614362</v>
+        <v>1.045606009372215</v>
       </c>
       <c r="N6">
-        <v>1.059397936955007</v>
+        <v>1.034368055350103</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052989554131429</v>
+        <v>1.011450504108392</v>
       </c>
       <c r="D7">
-        <v>1.057313683532571</v>
+        <v>1.03125787467506</v>
       </c>
       <c r="E7">
-        <v>1.049516324341157</v>
+        <v>1.01393299578222</v>
       </c>
       <c r="F7">
-        <v>1.066625098137787</v>
+        <v>1.033507639204252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042532807882335</v>
+        <v>1.0515603542065</v>
       </c>
       <c r="J7">
-        <v>1.057439244850797</v>
+        <v>1.030559786639794</v>
       </c>
       <c r="K7">
-        <v>1.059744241004969</v>
+        <v>1.040990252275397</v>
       </c>
       <c r="L7">
-        <v>1.051965900179055</v>
+        <v>1.023863174633217</v>
       </c>
       <c r="M7">
-        <v>1.069033335598849</v>
+        <v>1.04321492947702</v>
       </c>
       <c r="N7">
-        <v>1.058940929868462</v>
+        <v>1.032023299743682</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050608022597397</v>
+        <v>0.998723294727855</v>
       </c>
       <c r="D8">
-        <v>1.055397433395021</v>
+        <v>1.021018710321756</v>
       </c>
       <c r="E8">
-        <v>1.047426988227253</v>
+        <v>1.002893244506382</v>
       </c>
       <c r="F8">
-        <v>1.06439285070101</v>
+        <v>1.021931660395043</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041863315023345</v>
+        <v>1.047018004130834</v>
       </c>
       <c r="J8">
-        <v>1.055523695923184</v>
+        <v>1.02036859642076</v>
       </c>
       <c r="K8">
-        <v>1.058075825068036</v>
+        <v>1.031921302028436</v>
       </c>
       <c r="L8">
-        <v>1.050126951580683</v>
+        <v>1.014034167067749</v>
       </c>
       <c r="M8">
-        <v>1.067047316079682</v>
+        <v>1.032822527402995</v>
       </c>
       <c r="N8">
-        <v>1.057022660641654</v>
+        <v>1.021817636865592</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046381852631049</v>
+        <v>0.9741193599686433</v>
       </c>
       <c r="D9">
-        <v>1.051994564360256</v>
+        <v>1.001265459984767</v>
       </c>
       <c r="E9">
-        <v>1.043715538745481</v>
+        <v>0.9815650224442432</v>
       </c>
       <c r="F9">
-        <v>1.060435322601125</v>
+        <v>0.9996494137286799</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040659109259485</v>
+        <v>1.038103882725702</v>
       </c>
       <c r="J9">
-        <v>1.052116892685775</v>
+        <v>1.000620339047881</v>
       </c>
       <c r="K9">
-        <v>1.055105833660423</v>
+        <v>1.014338039294726</v>
       </c>
       <c r="L9">
-        <v>1.046853151173782</v>
+        <v>0.994964447307487</v>
       </c>
       <c r="M9">
-        <v>1.063520196789934</v>
+        <v>1.01274818151254</v>
       </c>
       <c r="N9">
-        <v>1.053611019352884</v>
+        <v>1.002041334702086</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043543291336352</v>
+        <v>0.955855093654962</v>
       </c>
       <c r="D10">
-        <v>1.049707478814887</v>
+        <v>0.9866472201451114</v>
       </c>
       <c r="E10">
-        <v>1.041220163303661</v>
+        <v>0.9657529210187447</v>
       </c>
       <c r="F10">
-        <v>1.057779802328461</v>
+        <v>0.9831927328407626</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039839456996485</v>
+        <v>1.031403254639042</v>
       </c>
       <c r="J10">
-        <v>1.049823616680121</v>
+        <v>0.9859366818921158</v>
       </c>
       <c r="K10">
-        <v>1.053104806604832</v>
+        <v>1.001261822239832</v>
       </c>
       <c r="L10">
-        <v>1.044647213946306</v>
+        <v>0.980769329156589</v>
       </c>
       <c r="M10">
-        <v>1.061149347409864</v>
+        <v>0.9978722265074909</v>
       </c>
       <c r="N10">
-        <v>1.051314486632259</v>
+        <v>0.9873368250689206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042308884063246</v>
+        <v>0.947389596981761</v>
       </c>
       <c r="D11">
-        <v>1.048712554836187</v>
+        <v>0.9798872566304069</v>
       </c>
       <c r="E11">
-        <v>1.040134402077852</v>
+        <v>0.9584321231982651</v>
       </c>
       <c r="F11">
-        <v>1.05662563262117</v>
+        <v>0.9755901817788551</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039480453683239</v>
+        <v>1.028279924296089</v>
       </c>
       <c r="J11">
-        <v>1.048825145592346</v>
+        <v>0.9791275153775143</v>
       </c>
       <c r="K11">
-        <v>1.052233161888467</v>
+        <v>0.9951987056254606</v>
       </c>
       <c r="L11">
-        <v>1.043686246082808</v>
+        <v>0.9741829615405116</v>
       </c>
       <c r="M11">
-        <v>1.060117920712647</v>
+        <v>0.9909875954426458</v>
       </c>
       <c r="N11">
-        <v>1.050314597601013</v>
+        <v>0.980517988756846</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041849551787503</v>
+        <v>0.9441489727264895</v>
       </c>
       <c r="D12">
-        <v>1.048342287065844</v>
+        <v>0.9773023665693529</v>
       </c>
       <c r="E12">
-        <v>1.039730293117656</v>
+        <v>0.9556312598982906</v>
       </c>
       <c r="F12">
-        <v>1.056196255002694</v>
+        <v>0.9726842071616113</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039346481885494</v>
+        <v>1.027081898108168</v>
       </c>
       <c r="J12">
-        <v>1.048453428318462</v>
+        <v>0.9765207045075823</v>
       </c>
       <c r="K12">
-        <v>1.051908598530738</v>
+        <v>0.9928777310414758</v>
       </c>
       <c r="L12">
-        <v>1.043328411849778</v>
+        <v>0.9716608934661106</v>
       </c>
       <c r="M12">
-        <v>1.059734058306078</v>
+        <v>0.9883541375495292</v>
       </c>
       <c r="N12">
-        <v>1.049942352445963</v>
+        <v>0.9779074759164734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04194811753659</v>
+        <v>0.9448486800436674</v>
       </c>
       <c r="D13">
-        <v>1.048421743113088</v>
+        <v>0.9778603519217993</v>
       </c>
       <c r="E13">
-        <v>1.039817012798742</v>
+        <v>0.9562359382975629</v>
       </c>
       <c r="F13">
-        <v>1.056288388490169</v>
+        <v>0.9733114539047675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03937524756227</v>
+        <v>1.027340676827111</v>
       </c>
       <c r="J13">
-        <v>1.048533201288447</v>
+        <v>0.9770835664007992</v>
       </c>
       <c r="K13">
-        <v>1.051978254746195</v>
+        <v>0.9933788631329555</v>
       </c>
       <c r="L13">
-        <v>1.043405209001855</v>
+        <v>0.9722054824209098</v>
       </c>
       <c r="M13">
-        <v>1.059816432089433</v>
+        <v>0.988922648666689</v>
       </c>
       <c r="N13">
-        <v>1.050022238702715</v>
+        <v>0.9784711371381396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042270932347084</v>
+        <v>0.9471237697531888</v>
       </c>
       <c r="D14">
-        <v>1.048681962946151</v>
+        <v>0.9796751582385467</v>
       </c>
       <c r="E14">
-        <v>1.040101014926342</v>
+        <v>0.9582023355345947</v>
       </c>
       <c r="F14">
-        <v>1.056590153867526</v>
+        <v>0.9753517152304383</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03946939226605</v>
+        <v>1.028181697665662</v>
       </c>
       <c r="J14">
-        <v>1.048794436587825</v>
+        <v>0.9789136827379834</v>
       </c>
       <c r="K14">
-        <v>1.052206349708042</v>
+        <v>0.995008314469789</v>
       </c>
       <c r="L14">
-        <v>1.043656685620169</v>
+        <v>0.9739760913187763</v>
       </c>
       <c r="M14">
-        <v>1.060086205823836</v>
+        <v>0.9907715304914293</v>
       </c>
       <c r="N14">
-        <v>1.050283844986183</v>
+        <v>0.9803038524504403</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042469720045859</v>
+        <v>0.9485123648941198</v>
       </c>
       <c r="D15">
-        <v>1.048842198536193</v>
+        <v>0.9807832098795132</v>
       </c>
       <c r="E15">
-        <v>1.040275890203774</v>
+        <v>0.9594027372555859</v>
       </c>
       <c r="F15">
-        <v>1.056775992416121</v>
+        <v>0.9765975648512533</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03952731527316</v>
+        <v>1.028694706008114</v>
       </c>
       <c r="J15">
-        <v>1.048955280302872</v>
+        <v>0.9800306671349347</v>
       </c>
       <c r="K15">
-        <v>1.052346780608356</v>
+        <v>0.9960028587019829</v>
       </c>
       <c r="L15">
-        <v>1.043811510418774</v>
+        <v>0.9750566842606051</v>
       </c>
       <c r="M15">
-        <v>1.060252323100974</v>
+        <v>0.9919002676045519</v>
       </c>
       <c r="N15">
-        <v>1.050444917117755</v>
+        <v>0.9814224230933553</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043625101400044</v>
+        <v>0.9564041809687446</v>
       </c>
       <c r="D16">
-        <v>1.04977341022149</v>
+        <v>0.9870860429815213</v>
       </c>
       <c r="E16">
-        <v>1.041292109398716</v>
+        <v>0.966227954623875</v>
       </c>
       <c r="F16">
-        <v>1.057856308241187</v>
+        <v>0.9836864048961508</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03986319606683</v>
+        <v>1.03160549814156</v>
       </c>
       <c r="J16">
-        <v>1.049889765089245</v>
+        <v>0.9863782896512732</v>
       </c>
       <c r="K16">
-        <v>1.053162544115784</v>
+        <v>1.001655067921783</v>
       </c>
       <c r="L16">
-        <v>1.044710866752667</v>
+        <v>0.9811964112719065</v>
       </c>
       <c r="M16">
-        <v>1.061217696401176</v>
+        <v>0.9983190238058384</v>
       </c>
       <c r="N16">
-        <v>1.051380728979711</v>
+        <v>0.9877790599617491</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044348408445681</v>
+        <v>0.9611973890540493</v>
       </c>
       <c r="D17">
-        <v>1.050356290666393</v>
+        <v>0.9909184940430469</v>
       </c>
       <c r="E17">
-        <v>1.041928137594168</v>
+        <v>0.970375655093244</v>
       </c>
       <c r="F17">
-        <v>1.058532793512907</v>
+        <v>0.987998721154756</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040072785187775</v>
+        <v>1.033369030083533</v>
       </c>
       <c r="J17">
-        <v>1.050474465419278</v>
+        <v>0.9902329240137693</v>
       </c>
       <c r="K17">
-        <v>1.053672850821651</v>
+        <v>1.005087650946723</v>
       </c>
       <c r="L17">
-        <v>1.045273447588463</v>
+        <v>0.984923839855686</v>
       </c>
       <c r="M17">
-        <v>1.061821942607935</v>
+        <v>1.002220500113757</v>
       </c>
       <c r="N17">
-        <v>1.051966259651279</v>
+        <v>0.9916391683471728</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044769792255122</v>
+        <v>0.9639404180314756</v>
       </c>
       <c r="D18">
-        <v>1.050695832246376</v>
+        <v>0.9931131141896591</v>
       </c>
       <c r="E18">
-        <v>1.042298617204287</v>
+        <v>0.9727500032579354</v>
       </c>
       <c r="F18">
-        <v>1.058926961240092</v>
+        <v>0.9904688358244494</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040194641025808</v>
+        <v>1.034376608789594</v>
       </c>
       <c r="J18">
-        <v>1.050814985012328</v>
+        <v>0.9924385089115511</v>
       </c>
       <c r="K18">
-        <v>1.053970004760855</v>
+        <v>1.007051792655248</v>
       </c>
       <c r="L18">
-        <v>1.04560103485694</v>
+        <v>0.9870562910612317</v>
       </c>
       <c r="M18">
-        <v>1.062173924116486</v>
+        <v>1.004454143022408</v>
       </c>
       <c r="N18">
-        <v>1.052307262821209</v>
+        <v>0.9938478854284933</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044913387622789</v>
+        <v>0.9648671066032714</v>
       </c>
       <c r="D19">
-        <v>1.050811532582589</v>
+        <v>0.9938547570856802</v>
       </c>
       <c r="E19">
-        <v>1.042424856159951</v>
+        <v>0.9735522531470051</v>
       </c>
       <c r="F19">
-        <v>1.059061292505458</v>
+        <v>0.9913036987018222</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040236124129081</v>
+        <v>1.034716717857774</v>
       </c>
       <c r="J19">
-        <v>1.050931004716321</v>
+        <v>0.9931835691524636</v>
       </c>
       <c r="K19">
-        <v>1.054071242374287</v>
+        <v>1.007715297208784</v>
       </c>
       <c r="L19">
-        <v>1.045712639816414</v>
+        <v>0.9877765870803491</v>
       </c>
       <c r="M19">
-        <v>1.062293862383979</v>
+        <v>1.00520888957715</v>
       </c>
       <c r="N19">
-        <v>1.052423447286489</v>
+        <v>0.9945940037404077</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044270857257484</v>
+        <v>0.9606886630023471</v>
       </c>
       <c r="D20">
-        <v>1.050293799029789</v>
+        <v>0.9905115878244064</v>
       </c>
       <c r="E20">
-        <v>1.041859950157993</v>
+        <v>0.969935361952965</v>
       </c>
       <c r="F20">
-        <v>1.058460256081036</v>
+        <v>0.9875407926730528</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0400503390625</v>
+        <v>1.03318202788605</v>
       </c>
       <c r="J20">
-        <v>1.050411787175139</v>
+        <v>0.9898238452488315</v>
       </c>
       <c r="K20">
-        <v>1.053618151508013</v>
+        <v>1.004723356942286</v>
       </c>
       <c r="L20">
-        <v>1.045213145700878</v>
+        <v>0.9845282971736981</v>
       </c>
       <c r="M20">
-        <v>1.061757160947045</v>
+        <v>1.001806318178678</v>
       </c>
       <c r="N20">
-        <v>1.051903492396843</v>
+        <v>0.9912295086434665</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042175894214613</v>
+        <v>0.9464565812460523</v>
       </c>
       <c r="D21">
-        <v>1.048605354396436</v>
+        <v>0.9791428690362982</v>
       </c>
       <c r="E21">
-        <v>1.040017405874354</v>
+        <v>0.9576256276110783</v>
       </c>
       <c r="F21">
-        <v>1.056501310074427</v>
+        <v>0.9747532692447642</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039441686229717</v>
+        <v>1.027935125163163</v>
       </c>
       <c r="J21">
-        <v>1.048717532665202</v>
+        <v>0.9783769904310876</v>
       </c>
       <c r="K21">
-        <v>1.052139203525276</v>
+        <v>0.9945304612391934</v>
       </c>
       <c r="L21">
-        <v>1.043582656692264</v>
+        <v>0.9734568649561853</v>
       </c>
       <c r="M21">
-        <v>1.060006784887295</v>
+        <v>0.9902292720263137</v>
       </c>
       <c r="N21">
-        <v>1.050206831851169</v>
+        <v>0.9797663979789092</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040853960638404</v>
+        <v>0.9369435530854682</v>
       </c>
       <c r="D22">
-        <v>1.047539653056212</v>
+        <v>0.971560890761168</v>
       </c>
       <c r="E22">
-        <v>1.038854234739366</v>
+        <v>0.9494069923779009</v>
       </c>
       <c r="F22">
-        <v>1.055265770449669</v>
+        <v>0.9662315602181692</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039055399524649</v>
+        <v>1.024413977696647</v>
       </c>
       <c r="J22">
-        <v>1.04764741412573</v>
+        <v>0.9707244468814168</v>
       </c>
       <c r="K22">
-        <v>1.051204718245401</v>
+        <v>0.9877175976460155</v>
       </c>
       <c r="L22">
-        <v>1.042552356244694</v>
+        <v>0.9660520520964689</v>
       </c>
       <c r="M22">
-        <v>1.05890193659296</v>
+        <v>0.9825030297003045</v>
       </c>
       <c r="N22">
-        <v>1.049135193620626</v>
+        <v>0.9721029869396385</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041555200529603</v>
+        <v>0.9420450637209498</v>
       </c>
       <c r="D23">
-        <v>1.048104996901821</v>
+        <v>0.975625055600524</v>
       </c>
       <c r="E23">
-        <v>1.039471305298982</v>
+        <v>0.9538133483227129</v>
       </c>
       <c r="F23">
-        <v>1.055921127126515</v>
+        <v>0.9707988551158525</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039260521503619</v>
+        <v>1.026303460112415</v>
       </c>
       <c r="J23">
-        <v>1.048215172648875</v>
+        <v>0.9748282563366755</v>
       </c>
       <c r="K23">
-        <v>1.051700549284131</v>
+        <v>0.9913709388949131</v>
       </c>
       <c r="L23">
-        <v>1.043099032394724</v>
+        <v>0.9700233094700702</v>
       </c>
       <c r="M23">
-        <v>1.059488053046128</v>
+        <v>0.9866450481878466</v>
       </c>
       <c r="N23">
-        <v>1.049703758425997</v>
+        <v>0.9762126242750374</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044305900873333</v>
+        <v>0.960918696559633</v>
       </c>
       <c r="D24">
-        <v>1.050322037678088</v>
+        <v>0.9906955765793257</v>
       </c>
       <c r="E24">
-        <v>1.041890762684857</v>
+        <v>0.9701344495724201</v>
       </c>
       <c r="F24">
-        <v>1.058493033905123</v>
+        <v>0.9877478497159853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040060482717456</v>
+        <v>1.033266590876316</v>
       </c>
       <c r="J24">
-        <v>1.050440110401241</v>
+        <v>0.9900088217479974</v>
       </c>
       <c r="K24">
-        <v>1.053642869315885</v>
+        <v>1.004888082600478</v>
       </c>
       <c r="L24">
-        <v>1.045240395247649</v>
+        <v>0.9847071540352581</v>
       </c>
       <c r="M24">
-        <v>1.061786434427797</v>
+        <v>1.001993598322191</v>
       </c>
       <c r="N24">
-        <v>1.051931855845175</v>
+        <v>0.9914147478304788</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047478050959774</v>
+        <v>0.980774812408143</v>
       </c>
       <c r="D25">
-        <v>1.052877482976442</v>
+        <v>1.006602561830946</v>
       </c>
       <c r="E25">
-        <v>1.044678673753801</v>
+        <v>0.9873318379552803</v>
       </c>
       <c r="F25">
-        <v>1.061461389176699</v>
+        <v>1.005664185248225</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040973365770205</v>
+        <v>1.040529750273501</v>
       </c>
       <c r="J25">
-        <v>1.053001450434197</v>
+        <v>1.005966966759368</v>
       </c>
       <c r="K25">
-        <v>1.055877292345751</v>
+        <v>1.01909923894152</v>
       </c>
       <c r="L25">
-        <v>1.047703558850671</v>
+        <v>1.000130046535814</v>
       </c>
       <c r="M25">
-        <v>1.064435397273559</v>
+        <v>1.018175203804157</v>
       </c>
       <c r="N25">
-        <v>1.054496833274768</v>
+        <v>1.00739555523819</v>
       </c>
     </row>
   </sheetData>
